--- a/lab1/data.xlsx
+++ b/lab1/data.xlsx
@@ -852,7 +852,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,5 +955,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>